--- a/pandas_sample/aggregate/output/sample.xlsx
+++ b/pandas_sample/aggregate/output/sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>イヤホン</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ケーブル</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>スマホ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>財布</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>防止</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>靴</t>
         </is>
@@ -458,31 +473,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>山田</t>
+          <t>goto</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>45</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>345</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>高橋</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+          <t>ito</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>452124</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sato</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>takahashi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>100000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F5" t="n">
         <v>3242432</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G5" t="n">
         <v>9469385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>yamada</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
